--- a/Requisitos e Casos de Uso 2.2.xlsx
+++ b/Requisitos e Casos de Uso 2.2.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>RE Nº</t>
   </si>
@@ -47,124 +47,115 @@
     <t>Gerente</t>
   </si>
   <si>
-    <t>Manter organiação</t>
-  </si>
-  <si>
-    <t>Organizar pedido</t>
-  </si>
-  <si>
-    <t>Montar pedidos gerado pelo cliente.</t>
-  </si>
-  <si>
     <t>Cozinha</t>
   </si>
   <si>
-    <t>Montar pedido</t>
-  </si>
-  <si>
-    <t>executar pedidos</t>
-  </si>
-  <si>
-    <t>Verificar preços nos cardapio</t>
-  </si>
-  <si>
     <t>Olhar o preço</t>
   </si>
   <si>
     <t>Consultar cardapio</t>
   </si>
   <si>
-    <t>Pagar e encerar o pedido</t>
-  </si>
-  <si>
-    <t>Usuário, cielo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validar Pagamento </t>
-  </si>
-  <si>
-    <t>Fechar o pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organização das comandas </t>
-  </si>
-  <si>
-    <t>Conferir e entregar o pedido</t>
-  </si>
-  <si>
-    <t>Conferir o lache e entregar ao cliente</t>
-  </si>
-  <si>
-    <t>Entregar pedido</t>
-  </si>
-  <si>
     <t>Selecionar produtos</t>
   </si>
   <si>
-    <t>Usuario</t>
-  </si>
-  <si>
     <t>Escolher produtos a consumir</t>
   </si>
   <si>
     <t>Selecionar produto</t>
   </si>
   <si>
-    <t>Gerente, cliente</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>Cancelar Pedido</t>
-  </si>
-  <si>
     <t>Atualizar Cardapio</t>
   </si>
   <si>
-    <t>Atualizar os preços e imagens dos produtos</t>
-  </si>
-  <si>
-    <t>Atualizar Preços e imagens dos lanches</t>
-  </si>
-  <si>
-    <t>Passar o lanche para a cabine de entrega</t>
-  </si>
-  <si>
-    <t>Gerente, Cozinha</t>
-  </si>
-  <si>
-    <t>Entrega do lanche da cozinha para a cabine</t>
-  </si>
-  <si>
-    <t>Passar Pedido</t>
-  </si>
-  <si>
     <t>Gerar comanda</t>
   </si>
   <si>
-    <t>Cliente, Cozinha</t>
-  </si>
-  <si>
-    <t>Imprime a comanda para a cozinha montar o pedido</t>
-  </si>
-  <si>
-    <t>Gerar Comanda</t>
-  </si>
-  <si>
-    <t>Adicionar produtos ao pedido</t>
-  </si>
-  <si>
-    <t>Adiciona e remove produtos selecionados</t>
-  </si>
-  <si>
     <t>Adicionar ao pedido</t>
   </si>
   <si>
-    <t>Descarta tudo que está no pedido</t>
-  </si>
-  <si>
-    <t>Remove tudo do pedido</t>
+    <t>Verificar preços no cardapio</t>
+  </si>
+  <si>
+    <t>fechar pedido</t>
+  </si>
+  <si>
+    <t>Encerra o pedido</t>
+  </si>
+  <si>
+    <t>término do pedido</t>
+  </si>
+  <si>
+    <t>Cancelar</t>
+  </si>
+  <si>
+    <t>Cancela o pedido</t>
+  </si>
+  <si>
+    <t>cancelar pedido</t>
+  </si>
+  <si>
+    <t>Pagar com cartão de credito/debito</t>
+  </si>
+  <si>
+    <t>Cliente faz o pagamento pela maquina de cartão</t>
+  </si>
+  <si>
+    <t>Validar pagamento cartão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagar com dinheiro em espécie </t>
+  </si>
+  <si>
+    <t>Cliente faz pagamento pela maquina Atm</t>
+  </si>
+  <si>
+    <t>Validar pagamento dinheiro</t>
+  </si>
+  <si>
+    <t>Emitir nota fiscal</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Usuário, Atm</t>
+  </si>
+  <si>
+    <t>Usuário, Cielo</t>
+  </si>
+  <si>
+    <t>Sistema emite a nota fiscal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emitir nota </t>
+  </si>
+  <si>
+    <t>Gerar a comanda solicitada pelo cliente</t>
+  </si>
+  <si>
+    <t>Cozinha recebe a comanda do cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atualizar os produtos do cardapio </t>
+  </si>
+  <si>
+    <t>Adicionar/alterar produtos</t>
+  </si>
+  <si>
+    <t>Atualizar status do pedido</t>
+  </si>
+  <si>
+    <t>Cozinha checa pedido e atualiza o estado do pedido</t>
+  </si>
+  <si>
+    <t>Atualizar status</t>
+  </si>
+  <si>
+    <t>Adiciona ou remove produtos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adiciona/remove itens do carrinho </t>
   </si>
 </sst>
 </file>
@@ -208,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -228,6 +219,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,18 +534,18 @@
   <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="63.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="4.140625" customWidth="1"/>
-    <col min="5" max="5" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
     <col min="6" max="6" width="3.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -576,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -585,13 +579,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -599,171 +593,171 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F4" s="6">
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="8">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="6">
-        <v>3</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="F8" s="8">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="F6" s="6">
-        <v>4</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="6">
-        <v>5</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="4">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="6">
-        <v>6</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="6">
-        <v>7</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="D10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="6">
         <v>8</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="7" t="s">
         <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D11" s="4">
         <v>9</v>
@@ -775,7 +769,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -783,52 +777,66 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="4">
+        <v>7</v>
+      </c>
+      <c r="D12">
         <v>10</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="8">
         <v>10</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="4">
+        <v>6</v>
+      </c>
+      <c r="D13">
         <v>11</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>43</v>
+      <c r="E13" t="s">
+        <v>38</v>
       </c>
       <c r="F13" s="6">
         <v>11</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Requisitos e Casos de Uso 2.2.xlsx
+++ b/Requisitos e Casos de Uso 2.2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -162,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +169,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -199,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -222,6 +225,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,7 +530,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -534,7 +541,7 @@
   <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E16" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,25 +780,25 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="9">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="9">
         <v>10</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="9" t="s">
         <v>41</v>
       </c>
     </row>
